--- a/data/input/absenteeism_data_27.xlsx
+++ b/data/input/absenteeism_data_27.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87696</v>
+        <v>61343</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabriela Peixoto</t>
+          <t>Julia Gomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>4046.88</v>
+        <v>7654.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43661</v>
+        <v>59504</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cauã da Mota</t>
+          <t>Sophia Farias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>4178.95</v>
+        <v>11504.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6063</v>
+        <v>37054</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Júlia da Rosa</t>
+          <t>Lara Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>6145.04</v>
+        <v>3816.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39448</v>
+        <v>39392</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sophia Viana</t>
+          <t>Natália Barbosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>10434.8</v>
+        <v>12249.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20097</v>
+        <v>89571</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camila Rodrigues</t>
+          <t>Srta. Sarah Pereira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>7294.41</v>
+        <v>4838.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90626</v>
+        <v>16311</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafael Ribeiro</t>
+          <t>Maysa Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>8708.360000000001</v>
+        <v>4993.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96695</v>
+        <v>37057</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nathan Barros</t>
+          <t>Vicente Porto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>11772.59</v>
+        <v>10086.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39170</v>
+        <v>75803</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kevin da Cunha</t>
+          <t>João Gabriel Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>5022.01</v>
+        <v>8141.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11102</v>
+        <v>27329</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sabrina Nascimento</t>
+          <t>Miguel Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>11625.68</v>
+        <v>2568.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>47568</v>
+        <v>123</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Luiz Gustavo Cardoso</t>
+          <t>Sr. Benício da Luz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>12326.19</v>
+        <v>4307.52</v>
       </c>
     </row>
   </sheetData>
